--- a/files/PLOT用.xlsx
+++ b/files/PLOT用.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\c-sugawara\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/75f1ddce899a9450/デスクトップ/test2024/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="12" documentId="11_8481E722E831CE69C46DD2353A5DDEF53F12A698" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1850280A-4977-465B-BD13-FB5BEC28B579}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13095"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,66 +25,65 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="7">
   <si>
     <t>巻_1</t>
     <rPh sb="0" eb="1">
       <t>マ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>巻_2</t>
     <rPh sb="0" eb="1">
       <t>マ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>切_1</t>
     <rPh sb="0" eb="1">
       <t>キ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>切_2-1</t>
     <rPh sb="0" eb="1">
       <t>キ2</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>設備名</t>
     <rPh sb="0" eb="3">
       <t>セツビメイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>時間</t>
     <rPh sb="0" eb="2">
       <t>ジカン</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日付</t>
+    <rPh sb="0" eb="2">
+      <t>ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="BIZ UDPゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="BIZ UDPゴシック"/>
       <family val="2"/>
       <charset val="128"/>
@@ -104,7 +104,12 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <name val="BIZ UDPゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="BIZ UDPゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -118,12 +123,25 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -132,31 +150,50 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="21" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="BIZ UDPゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="none"/>
+      </font>
       <fill>
         <patternFill patternType="none">
           <bgColor auto="1"/>
@@ -164,6 +201,19 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="BIZ UDPゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="none"/>
+      </font>
       <fill>
         <patternFill patternType="none">
           <bgColor auto="1"/>
@@ -182,8 +232,10 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color auto="1"/>
         <name val="BIZ UDPゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="26" formatCode="h:mm:ss"/>
@@ -206,8 +258,10 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
+        <color auto="1"/>
         <name val="BIZ UDPゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -217,6 +271,13 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -232,11 +293,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="テーブル1" displayName="テーブル1" ref="A1:B73" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
-  <autoFilter ref="A1:B73"/>
-  <tableColumns count="2">
-    <tableColumn id="1" name="設備名" dataDxfId="3"/>
-    <tableColumn id="2" name="時間" dataDxfId="2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="テーブル1" displayName="テーブル1" ref="A1:C145" totalsRowShown="0" headerRowDxfId="4" dataDxfId="0">
+  <autoFilter ref="A1:C145" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="設備名" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="時間" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{4FCBC1FD-6186-4105-801E-A70F64A11468}" name="日付" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -504,610 +566,1623 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:B73"/>
+  <dimension ref="A1:D145"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" zoomScale="37" workbookViewId="0">
+      <selection activeCell="C83" sqref="A2:C145"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="8.7265625" style="1"/>
+    <col min="1" max="2" width="8.7109375"/>
+    <col min="3" max="3" width="11.2109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="4">
         <v>0.45686342592592594</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="5" t="s">
+      <c r="C2" s="5">
+        <v>45535</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="4">
         <v>0.45943287037037034</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" s="5" t="s">
+      <c r="C3" s="5">
+        <v>45535</v>
+      </c>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="4">
         <v>0.46206018518518516</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C4" s="5">
+        <v>45535</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="4">
         <v>0.50163194444444448</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" s="5" t="s">
+      <c r="C5" s="5">
+        <v>45535</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="4">
         <v>0.50270833333333331</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" s="5" t="s">
+      <c r="C6" s="5">
+        <v>45535</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="4">
         <v>0.50692129629629623</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" s="5" t="s">
+      <c r="C7" s="5">
+        <v>45535</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="4">
         <v>0.50766203703703705</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9" s="5" t="s">
+      <c r="C8" s="5">
+        <v>45535</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B9" s="4">
         <v>0.51211805555555556</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10" s="5" t="s">
+      <c r="C9" s="5">
+        <v>45535</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B10" s="4">
         <v>0.51273148148148151</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C10" s="5">
+        <v>45535</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B11" s="4">
         <v>0.51427083333333334</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A12" s="5" t="s">
+      <c r="C11" s="5">
+        <v>45535</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B12" s="4">
         <v>0.51547453703703705</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A13" s="5" t="s">
+      <c r="C12" s="5">
+        <v>45535</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B13" s="4">
         <v>0.51640046296296294</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A14" s="5" t="s">
+      <c r="C13" s="5">
+        <v>45535</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B14" s="4">
         <v>0.52006944444444447</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C14" s="5">
+        <v>45535</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B15" s="4">
         <v>0.52240740740740743</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A16" s="5" t="s">
+      <c r="C15" s="5">
+        <v>45535</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B16" s="4">
         <v>0.52349537037037031</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17" s="5" t="s">
+      <c r="C16" s="5">
+        <v>45535</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B17" s="4">
         <v>0.52437500000000004</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18" s="5" t="s">
+      <c r="C17" s="5">
+        <v>45535</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B18" s="4">
         <v>0.53064814814814809</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C18" s="5">
+        <v>45535</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B19" s="4">
         <v>0.53195601851851848</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A20" s="5" t="s">
+      <c r="C19" s="5">
+        <v>45535</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B20" s="4">
         <v>0.53300925925925924</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A21" s="5" t="s">
+      <c r="C20" s="5">
+        <v>45535</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B21" s="4">
         <v>0.53392361111111108</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A22" s="5" t="s">
+      <c r="C21" s="5">
+        <v>45535</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B22" s="4">
         <v>0.53855324074074074</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C22" s="5">
+        <v>45535</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B23" s="4">
         <v>0.54180555555555554</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A24" s="5" t="s">
+      <c r="C23" s="5">
+        <v>45535</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A24" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B24" s="4">
         <v>0.54303240740740744</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A25" s="5" t="s">
+      <c r="C24" s="5">
+        <v>45535</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A25" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B25" s="4">
         <v>0.54421296296296295</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A26" s="5" t="s">
+      <c r="C25" s="5">
+        <v>45535</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B26" s="4">
         <v>0.55035879629629625</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C26" s="5">
+        <v>45535</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B27" s="4">
         <v>0.55186342592592597</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A28" s="5" t="s">
+      <c r="C27" s="5">
+        <v>45535</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A28" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B28" s="4">
         <v>0.55473379629629627</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A29" s="5" t="s">
+      <c r="C28" s="5">
+        <v>45535</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A29" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B29" s="4">
         <v>0.5594675925925926</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A30" s="5" t="s">
+      <c r="C29" s="5">
+        <v>45535</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A30" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B30" s="4">
         <v>0.56047453703703709</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C30" s="5">
+        <v>45535</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B31" s="4">
         <v>0.56114583333333334</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A32" s="5" t="s">
+      <c r="C31" s="5">
+        <v>45535</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A32" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B32" s="4">
         <v>0.56410879629629629</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A33" s="5" t="s">
+      <c r="C32" s="5">
+        <v>45535</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A33" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B33" s="4">
         <v>0.56415509259259256</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A34" s="5" t="s">
+      <c r="C33" s="5">
+        <v>45535</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A34" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B34" s="4">
         <v>0.56849537037037035</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C34" s="5">
+        <v>45535</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B35" s="4">
         <v>0.57128472222222226</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A36" s="5" t="s">
+      <c r="C35" s="5">
+        <v>45535</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A36" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B36" s="4">
         <v>0.57295138888888886</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A37" s="5" t="s">
+      <c r="C36" s="5">
+        <v>45535</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A37" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B37" s="4">
         <v>0.57697916666666671</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A38" s="5" t="s">
+      <c r="C37" s="5">
+        <v>45535</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A38" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B38" s="4">
         <v>0.5814583333333333</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A39" s="5" t="s">
+      <c r="C38" s="5">
+        <v>45535</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A39" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B39" s="4">
         <v>0.58218749999999997</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A40" s="5" t="s">
+      <c r="C39" s="5">
+        <v>45535</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A40" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B40" s="4">
         <v>0.58318287037037042</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C40" s="5">
+        <v>45535</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B41" s="4">
         <v>0.58472222222222225</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A42" s="5" t="s">
+      <c r="C41" s="5">
+        <v>45535</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A42" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B42" s="4">
         <v>0.58622685185185186</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A43" s="5" t="s">
+      <c r="C42" s="5">
+        <v>45535</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A43" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B43" s="4">
         <v>0.59304398148148152</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C43" s="5">
+        <v>45535</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B44" s="4">
         <v>0.59459490740740739</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A45" s="5" t="s">
+      <c r="C44" s="5">
+        <v>45535</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A45" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B45" s="4">
         <v>0.59504629629629624</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A46" s="5" t="s">
+      <c r="C45" s="5">
+        <v>45535</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A46" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B46" s="4">
         <v>0.59702546296296299</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A47" s="5" t="s">
+      <c r="C46" s="5">
+        <v>45535</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A47" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B47" s="4">
         <v>0.60076388888888888</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A48" s="5" t="s">
+      <c r="C47" s="5">
+        <v>45535</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A48" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B48" s="4">
         <v>0.60440972222222222</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A49" s="5" t="s">
+      <c r="C48" s="5">
+        <v>45535</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A49" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B49" s="4">
         <v>0.60606481481481478</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A50" s="5" t="s">
+      <c r="C49" s="5">
+        <v>45535</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A50" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B50" s="4">
         <v>0.6165046296296296</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C50" s="5">
+        <v>45535</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A51" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B51" s="4">
         <v>0.61942129629629628</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C51" s="5">
+        <v>45535</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A52" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B52" s="4">
         <v>0.6347800925925926</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A53" s="5" t="s">
+      <c r="C52" s="5">
+        <v>45535</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A53" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B53" s="4">
         <v>0.63539351851851855</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A54" s="5" t="s">
+      <c r="C53" s="5">
+        <v>45535</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A54" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B54" s="4">
         <v>0.63718750000000002</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A55" s="5" t="s">
+      <c r="C54" s="5">
+        <v>45535</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A55" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B55" s="4">
         <v>0.64037037037037037</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C55" s="5">
+        <v>45535</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A56" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B56" s="4">
         <v>0.64134259259259263</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A57" s="5" t="s">
+      <c r="C56" s="5">
+        <v>45535</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A57" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B57" s="4">
         <v>0.64314814814814814</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A58" s="5" t="s">
+      <c r="C57" s="5">
+        <v>45535</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A58" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B58" s="4">
         <v>0.64420138888888889</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A59" s="5" t="s">
+      <c r="C58" s="5">
+        <v>45535</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A59" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B59" s="4">
         <v>0.64799768518518519</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A60" s="5" t="s">
+      <c r="C59" s="5">
+        <v>45535</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A60" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B60" s="4">
         <v>0.64886574074074077</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C60" s="5">
+        <v>45535</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A61" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B61" s="4">
         <v>0.648900462962963</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A62" s="5" t="s">
+      <c r="C61" s="5">
+        <v>45535</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A62" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B62" s="4">
         <v>0.6502430555555555</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A63" s="5" t="s">
+      <c r="C62" s="5">
+        <v>45535</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A63" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B63" s="4">
         <v>0.65386574074074078</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A64" s="5" t="s">
+      <c r="C63" s="5">
+        <v>45535</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A64" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B64" s="4">
         <v>0.65471064814814817</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A65" s="5" t="s">
+      <c r="C64" s="5">
+        <v>45535</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A65" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B65" s="4">
         <v>0.65554398148148152</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A66" s="5" t="s">
+      <c r="C65" s="5">
+        <v>45535</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A66" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B66" s="4">
         <v>0.65858796296296296</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C66" s="5">
+        <v>45535</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A67" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B67" s="4">
         <v>0.66123842592592597</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A68" s="5" t="s">
+      <c r="C67" s="5">
+        <v>45535</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A68" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B68" s="4">
         <v>0.66180555555555554</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A69" s="5" t="s">
+      <c r="C68" s="5">
+        <v>45535</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A69" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B69" s="4">
         <v>0.66285879629629629</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A70" s="5" t="s">
+      <c r="C69" s="5">
+        <v>45535</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A70" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B70" s="4">
         <v>0.6684606481481481</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C70" s="5">
+        <v>45535</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A71" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B71" s="4">
         <v>0.6694444444444444</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A72" s="5" t="s">
+      <c r="C71" s="5">
+        <v>45535</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A72" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B72" s="4">
         <v>0.66995370370370377</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A73" s="5" t="s">
+      <c r="C72" s="5">
+        <v>45535</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A73" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B73" s="4">
         <v>0.67083333333333339</v>
       </c>
+      <c r="C73" s="5">
+        <v>45535</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A74" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B74" s="7">
+        <v>0.45686342592592594</v>
+      </c>
+      <c r="C74" s="5">
+        <v>45536</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A75" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B75" s="7">
+        <v>0.45943287037037034</v>
+      </c>
+      <c r="C75" s="5">
+        <v>45536</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A76" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B76" s="7">
+        <v>0.46206018518518516</v>
+      </c>
+      <c r="C76" s="5">
+        <v>45536</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A77" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B77" s="7">
+        <v>0.50163194444444448</v>
+      </c>
+      <c r="C77" s="5">
+        <v>45536</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A78" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B78" s="7">
+        <v>0.50270833333333331</v>
+      </c>
+      <c r="C78" s="5">
+        <v>45536</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A79" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B79" s="7">
+        <v>0.50692129629629623</v>
+      </c>
+      <c r="C79" s="5">
+        <v>45536</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A80" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B80" s="7">
+        <v>0.50766203703703705</v>
+      </c>
+      <c r="C80" s="5">
+        <v>45536</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A81" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B81" s="7">
+        <v>0.51211805555555556</v>
+      </c>
+      <c r="C81" s="5">
+        <v>45536</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A82" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B82" s="7">
+        <v>0.51273148148148151</v>
+      </c>
+      <c r="C82" s="5">
+        <v>45536</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A83" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B83" s="7">
+        <v>0.51427083333333334</v>
+      </c>
+      <c r="C83" s="5">
+        <v>45536</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A84" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B84" s="7">
+        <v>0.51547453703703705</v>
+      </c>
+      <c r="C84" s="5">
+        <v>45536</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A85" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B85" s="7">
+        <v>0.51640046296296294</v>
+      </c>
+      <c r="C85" s="5">
+        <v>45536</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A86" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B86" s="7">
+        <v>0.52006944444444447</v>
+      </c>
+      <c r="C86" s="5">
+        <v>45536</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A87" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B87" s="7">
+        <v>0.52240740740740743</v>
+      </c>
+      <c r="C87" s="5">
+        <v>45536</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A88" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B88" s="7">
+        <v>0.52349537037037031</v>
+      </c>
+      <c r="C88" s="5">
+        <v>45536</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A89" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B89" s="7">
+        <v>0.52437500000000004</v>
+      </c>
+      <c r="C89" s="5">
+        <v>45536</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A90" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B90" s="7">
+        <v>0.53064814814814809</v>
+      </c>
+      <c r="C90" s="5">
+        <v>45536</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A91" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B91" s="7">
+        <v>0.53195601851851848</v>
+      </c>
+      <c r="C91" s="5">
+        <v>45536</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A92" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B92" s="7">
+        <v>0.53300925925925924</v>
+      </c>
+      <c r="C92" s="5">
+        <v>45536</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A93" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B93" s="7">
+        <v>0.53392361111111108</v>
+      </c>
+      <c r="C93" s="5">
+        <v>45536</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A94" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B94" s="7">
+        <v>0.53855324074074074</v>
+      </c>
+      <c r="C94" s="5">
+        <v>45536</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A95" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B95" s="7">
+        <v>0.54180555555555554</v>
+      </c>
+      <c r="C95" s="5">
+        <v>45536</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A96" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B96" s="7">
+        <v>0.54303240740740744</v>
+      </c>
+      <c r="C96" s="5">
+        <v>45536</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A97" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B97" s="7">
+        <v>0.54421296296296295</v>
+      </c>
+      <c r="C97" s="5">
+        <v>45536</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A98" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B98" s="7">
+        <v>0.55035879629629625</v>
+      </c>
+      <c r="C98" s="5">
+        <v>45536</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A99" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B99" s="7">
+        <v>0.55186342592592597</v>
+      </c>
+      <c r="C99" s="5">
+        <v>45536</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A100" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B100" s="7">
+        <v>0.55473379629629627</v>
+      </c>
+      <c r="C100" s="5">
+        <v>45536</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A101" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B101" s="7">
+        <v>0.5594675925925926</v>
+      </c>
+      <c r="C101" s="5">
+        <v>45536</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A102" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B102" s="7">
+        <v>0.56047453703703709</v>
+      </c>
+      <c r="C102" s="5">
+        <v>45536</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A103" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B103" s="7">
+        <v>0.56114583333333334</v>
+      </c>
+      <c r="C103" s="5">
+        <v>45536</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A104" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B104" s="7">
+        <v>0.56410879629629629</v>
+      </c>
+      <c r="C104" s="5">
+        <v>45536</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A105" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B105" s="7">
+        <v>0.56415509259259256</v>
+      </c>
+      <c r="C105" s="5">
+        <v>45536</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A106" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B106" s="7">
+        <v>0.56849537037037035</v>
+      </c>
+      <c r="C106" s="5">
+        <v>45536</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A107" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B107" s="7">
+        <v>0.57128472222222226</v>
+      </c>
+      <c r="C107" s="5">
+        <v>45536</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A108" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B108" s="7">
+        <v>0.57295138888888886</v>
+      </c>
+      <c r="C108" s="5">
+        <v>45536</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A109" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B109" s="7">
+        <v>0.57697916666666671</v>
+      </c>
+      <c r="C109" s="5">
+        <v>45536</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A110" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B110" s="7">
+        <v>0.5814583333333333</v>
+      </c>
+      <c r="C110" s="5">
+        <v>45536</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A111" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B111" s="7">
+        <v>0.58218749999999997</v>
+      </c>
+      <c r="C111" s="5">
+        <v>45536</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A112" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B112" s="7">
+        <v>0.58318287037037042</v>
+      </c>
+      <c r="C112" s="5">
+        <v>45536</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A113" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B113" s="7">
+        <v>0.58472222222222225</v>
+      </c>
+      <c r="C113" s="5">
+        <v>45536</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A114" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B114" s="7">
+        <v>0.58622685185185186</v>
+      </c>
+      <c r="C114" s="5">
+        <v>45536</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A115" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B115" s="7">
+        <v>0.59304398148148152</v>
+      </c>
+      <c r="C115" s="5">
+        <v>45536</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A116" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B116" s="7">
+        <v>0.59459490740740739</v>
+      </c>
+      <c r="C116" s="5">
+        <v>45536</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A117" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B117" s="7">
+        <v>0.59504629629629624</v>
+      </c>
+      <c r="C117" s="5">
+        <v>45536</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A118" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B118" s="7">
+        <v>0.59702546296296299</v>
+      </c>
+      <c r="C118" s="5">
+        <v>45536</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A119" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B119" s="7">
+        <v>0.60076388888888888</v>
+      </c>
+      <c r="C119" s="5">
+        <v>45536</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A120" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B120" s="7">
+        <v>0.60440972222222222</v>
+      </c>
+      <c r="C120" s="5">
+        <v>45536</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A121" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B121" s="7">
+        <v>0.60606481481481478</v>
+      </c>
+      <c r="C121" s="5">
+        <v>45536</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A122" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B122" s="7">
+        <v>0.6165046296296296</v>
+      </c>
+      <c r="C122" s="5">
+        <v>45536</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A123" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B123" s="7">
+        <v>0.61942129629629628</v>
+      </c>
+      <c r="C123" s="5">
+        <v>45536</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A124" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B124" s="7">
+        <v>0.6347800925925926</v>
+      </c>
+      <c r="C124" s="5">
+        <v>45536</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A125" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B125" s="7">
+        <v>0.63539351851851855</v>
+      </c>
+      <c r="C125" s="5">
+        <v>45536</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A126" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B126" s="7">
+        <v>0.63718750000000002</v>
+      </c>
+      <c r="C126" s="5">
+        <v>45536</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A127" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B127" s="7">
+        <v>0.64037037037037037</v>
+      </c>
+      <c r="C127" s="5">
+        <v>45536</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A128" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B128" s="7">
+        <v>0.64134259259259263</v>
+      </c>
+      <c r="C128" s="5">
+        <v>45536</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A129" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B129" s="7">
+        <v>0.64314814814814814</v>
+      </c>
+      <c r="C129" s="5">
+        <v>45536</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A130" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B130" s="7">
+        <v>0.64420138888888889</v>
+      </c>
+      <c r="C130" s="5">
+        <v>45536</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A131" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B131" s="7">
+        <v>0.64799768518518519</v>
+      </c>
+      <c r="C131" s="5">
+        <v>45536</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A132" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B132" s="7">
+        <v>0.64886574074074077</v>
+      </c>
+      <c r="C132" s="5">
+        <v>45536</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A133" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B133" s="7">
+        <v>0.648900462962963</v>
+      </c>
+      <c r="C133" s="5">
+        <v>45536</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A134" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B134" s="7">
+        <v>0.6502430555555555</v>
+      </c>
+      <c r="C134" s="5">
+        <v>45536</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A135" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B135" s="7">
+        <v>0.65386574074074078</v>
+      </c>
+      <c r="C135" s="5">
+        <v>45536</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A136" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B136" s="7">
+        <v>0.65471064814814817</v>
+      </c>
+      <c r="C136" s="5">
+        <v>45536</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A137" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B137" s="7">
+        <v>0.65554398148148152</v>
+      </c>
+      <c r="C137" s="5">
+        <v>45536</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A138" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B138" s="7">
+        <v>0.65858796296296296</v>
+      </c>
+      <c r="C138" s="5">
+        <v>45536</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A139" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B139" s="7">
+        <v>0.66123842592592597</v>
+      </c>
+      <c r="C139" s="5">
+        <v>45536</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A140" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B140" s="7">
+        <v>0.66180555555555554</v>
+      </c>
+      <c r="C140" s="5">
+        <v>45536</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A141" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B141" s="7">
+        <v>0.66285879629629629</v>
+      </c>
+      <c r="C141" s="5">
+        <v>45536</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A142" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B142" s="7">
+        <v>0.6684606481481481</v>
+      </c>
+      <c r="C142" s="5">
+        <v>45536</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A143" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B143" s="7">
+        <v>0.6694444444444444</v>
+      </c>
+      <c r="C143" s="5">
+        <v>45536</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A144" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B144" s="7">
+        <v>0.66995370370370377</v>
+      </c>
+      <c r="C144" s="5">
+        <v>45536</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A145" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B145" s="7">
+        <v>0.67083333333333339</v>
+      </c>
+      <c r="C145" s="5">
+        <v>45536</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="A2:B73">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B73">
     <sortCondition ref="B2:B73"/>
   </sortState>
-  <phoneticPr fontId="2"/>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="81" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
